--- a/Data_preparation/datasets/final_data/PROCORE_TECHNOLOGIES_INC.xlsx
+++ b/Data_preparation/datasets/final_data/PROCORE_TECHNOLOGIES_INC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,69 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>DOCU</t>
-  </si>
-  <si>
-    <t>ZBRA</t>
-  </si>
-  <si>
-    <t>ZS</t>
-  </si>
-  <si>
-    <t>FTNT</t>
-  </si>
-  <si>
-    <t>NFLX</t>
-  </si>
-  <si>
-    <t>CSCO</t>
-  </si>
-  <si>
-    <t>AAPL</t>
-  </si>
-  <si>
-    <t>STNE</t>
-  </si>
-  <si>
-    <t>OKTA</t>
-  </si>
-  <si>
-    <t>CAN</t>
-  </si>
-  <si>
-    <t>TSLA</t>
-  </si>
-  <si>
-    <t>DXC</t>
-  </si>
-  <si>
-    <t>UI</t>
-  </si>
-  <si>
-    <t>INFA</t>
-  </si>
-  <si>
-    <t>STX</t>
-  </si>
-  <si>
-    <t>FICO</t>
-  </si>
-  <si>
-    <t>AMBA</t>
-  </si>
-  <si>
-    <t>PEGA</t>
-  </si>
-  <si>
-    <t>PATH</t>
-  </si>
-  <si>
-    <t>AMZN</t>
-  </si>
-  <si>
-    <t>NTAP</t>
   </si>
 </sst>
 </file>
@@ -715,22 +652,22 @@
         <v>43830</v>
       </c>
       <c r="D2">
-        <v>74.30999755859375</v>
+        <v>84</v>
       </c>
       <c r="E2">
-        <v>78.51000213623047</v>
+        <v>86.41999816894531</v>
       </c>
       <c r="F2">
-        <v>80.26000213623047</v>
+        <v>91.98999786376952</v>
       </c>
       <c r="G2">
-        <v>70.55000305175781</v>
+        <v>78.95999908447266</v>
       </c>
       <c r="H2">
-        <v>201104117</v>
+        <v>150192801</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K2">
         <v>-34796000</v>
@@ -759,22 +696,22 @@
         <v>44012</v>
       </c>
       <c r="D3">
-        <v>256.4700012207031</v>
+        <v>84</v>
       </c>
       <c r="E3">
-        <v>280.75</v>
+        <v>86.41999816894531</v>
       </c>
       <c r="F3">
-        <v>287.8299865722656</v>
+        <v>91.98999786376952</v>
       </c>
       <c r="G3">
-        <v>250.9499969482422</v>
+        <v>78.95999908447266</v>
       </c>
       <c r="H3">
-        <v>50845151</v>
+        <v>150192801</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P3">
         <v>96553000</v>
@@ -818,22 +755,22 @@
         <v>44104</v>
       </c>
       <c r="D4">
-        <v>142.1999969482422</v>
+        <v>84</v>
       </c>
       <c r="E4">
-        <v>135.75</v>
+        <v>86.41999816894531</v>
       </c>
       <c r="F4">
-        <v>158.7359924316406</v>
+        <v>91.98999786376952</v>
       </c>
       <c r="G4">
-        <v>133.8099975585938</v>
+        <v>78.95999908447266</v>
       </c>
       <c r="H4">
-        <v>158300823</v>
+        <v>150192801</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="P4">
         <v>101891000</v>
@@ -895,22 +832,22 @@
         <v>44196</v>
       </c>
       <c r="D5">
-        <v>29.91399955749512</v>
+        <v>84</v>
       </c>
       <c r="E5">
-        <v>28.95000076293945</v>
+        <v>86.41999816894531</v>
       </c>
       <c r="F5">
-        <v>31.0620002746582</v>
+        <v>91.98999786376952</v>
       </c>
       <c r="G5">
-        <v>27.46199989318848</v>
+        <v>78.95999908447266</v>
       </c>
       <c r="H5">
-        <v>766266033</v>
+        <v>150192801</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K5">
         <v>-284514000</v>
@@ -984,22 +921,22 @@
         <v>44286</v>
       </c>
       <c r="D6">
-        <v>529.9299926757812</v>
+        <v>84</v>
       </c>
       <c r="E6">
-        <v>513.469970703125</v>
+        <v>86.41999816894531</v>
       </c>
       <c r="F6">
-        <v>563.5599975585938</v>
+        <v>91.98999786376952</v>
       </c>
       <c r="G6">
-        <v>499</v>
+        <v>78.95999908447266</v>
       </c>
       <c r="H6">
-        <v>424926346</v>
+        <v>150192801</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="P6">
         <v>113938000</v>
@@ -1067,22 +1004,22 @@
         <v>44377</v>
       </c>
       <c r="D7">
-        <v>46.47724219552952</v>
+        <v>94.76000213623048</v>
       </c>
       <c r="E7">
-        <v>48.50979995727539</v>
+        <v>103.2799987792969</v>
       </c>
       <c r="F7">
-        <v>48.75511095753174</v>
+        <v>104.4199981689453</v>
       </c>
       <c r="G7">
-        <v>45.85521015250949</v>
+        <v>90.05000305175781</v>
       </c>
       <c r="H7">
-        <v>3953196953</v>
+        <v>150192801</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>12166396791</v>
@@ -1183,22 +1120,22 @@
         <v>44469</v>
       </c>
       <c r="D8">
-        <v>138.916410444292</v>
+        <v>89.44999694824219</v>
       </c>
       <c r="E8">
-        <v>146.6503143310547</v>
+        <v>91.4499969482422</v>
       </c>
       <c r="F8">
-        <v>149.9494520691154</v>
+        <v>105.2900009155273</v>
       </c>
       <c r="G8">
-        <v>135.3627448332334</v>
+        <v>85.20500183105469</v>
       </c>
       <c r="H8">
-        <v>14840390000</v>
+        <v>150192801</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>11715191276</v>
@@ -1299,22 +1236,22 @@
         <v>44561</v>
       </c>
       <c r="D9">
-        <v>17.05999946594238</v>
+        <v>80.23000335693359</v>
       </c>
       <c r="E9">
-        <v>15.57999992370606</v>
+        <v>62.56000137329102</v>
       </c>
       <c r="F9">
-        <v>19.65999984741211</v>
+        <v>80.81099700927734</v>
       </c>
       <c r="G9">
-        <v>13.14000034332275</v>
+        <v>56</v>
       </c>
       <c r="H9">
-        <v>250599325</v>
+        <v>150192801</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>10557481539</v>
@@ -1415,22 +1352,22 @@
         <v>44651</v>
       </c>
       <c r="D10">
-        <v>151.2200012207031</v>
+        <v>58.36999893188477</v>
       </c>
       <c r="E10">
-        <v>119.3099975585938</v>
+        <v>55.47000122070312</v>
       </c>
       <c r="F10">
-        <v>161.6100006103516</v>
+        <v>62.77000045776367</v>
       </c>
       <c r="G10">
-        <v>118.879997253418</v>
+        <v>49.90999984741211</v>
       </c>
       <c r="H10">
-        <v>168459019</v>
+        <v>150192801</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>7830460857</v>
@@ -1531,22 +1468,22 @@
         <v>44742</v>
       </c>
       <c r="D11">
-        <v>3.200000047683716</v>
+        <v>45.66999816894531</v>
       </c>
       <c r="E11">
-        <v>3.930000066757202</v>
+        <v>51.70000076293945</v>
       </c>
       <c r="F11">
-        <v>4.539999961853027</v>
+        <v>52.5</v>
       </c>
       <c r="G11">
-        <v>3.109999895095825</v>
+        <v>43.45000076293945</v>
       </c>
       <c r="H11">
-        <v>448228270</v>
+        <v>150192801</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>6153244967</v>
@@ -1647,22 +1584,22 @@
         <v>44834</v>
       </c>
       <c r="D12">
-        <v>254.5</v>
+        <v>50.02000045776367</v>
       </c>
       <c r="E12">
-        <v>227.5399932861328</v>
+        <v>54.65999984741211</v>
       </c>
       <c r="F12">
-        <v>257.5</v>
+        <v>57.02999877929688</v>
       </c>
       <c r="G12">
-        <v>198.5899963378907</v>
+        <v>45.45000076293945</v>
       </c>
       <c r="H12">
-        <v>3325150886</v>
+        <v>150192801</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>6769320849</v>
@@ -1763,22 +1700,22 @@
         <v>44926</v>
       </c>
       <c r="D13">
-        <v>26.71999931335449</v>
+        <v>48.18999862670898</v>
       </c>
       <c r="E13">
-        <v>28.72999954223633</v>
+        <v>55.95000076293945</v>
       </c>
       <c r="F13">
-        <v>29.72999954223633</v>
+        <v>58.09000015258789</v>
       </c>
       <c r="G13">
-        <v>26.64999961853028</v>
+        <v>41.79999923706055</v>
       </c>
       <c r="H13">
-        <v>178998669</v>
+        <v>150192801</v>
       </c>
       <c r="I13" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>6511270234</v>
@@ -1879,22 +1816,22 @@
         <v>45016</v>
       </c>
       <c r="D14">
-        <v>261.1884929516806</v>
+        <v>62.11999893188477</v>
       </c>
       <c r="E14">
-        <v>225.4617156982422</v>
+        <v>53.40999984741211</v>
       </c>
       <c r="F14">
-        <v>262.5264343168398</v>
+        <v>62.3380012512207</v>
       </c>
       <c r="G14">
-        <v>223.9783523558658</v>
+        <v>51.36999893188477</v>
       </c>
       <c r="H14">
-        <v>60498713</v>
+        <v>150192801</v>
       </c>
       <c r="I14" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>8784037749</v>
@@ -1995,22 +1932,22 @@
         <v>45107</v>
       </c>
       <c r="D15">
-        <v>18.42000007629395</v>
+        <v>64.5</v>
       </c>
       <c r="E15">
-        <v>19.04000091552734</v>
+        <v>75.84999847412109</v>
       </c>
       <c r="F15">
-        <v>19.38999938964844</v>
+        <v>76.25</v>
       </c>
       <c r="G15">
-        <v>17.57999992370605</v>
+        <v>61.38000106811523</v>
       </c>
       <c r="H15">
-        <v>260676335</v>
+        <v>150192801</v>
       </c>
       <c r="I15" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>9142175448</v>
@@ -2111,22 +2048,22 @@
         <v>45199</v>
       </c>
       <c r="D16">
-        <v>62.6169871617784</v>
+        <v>65.06999969482422</v>
       </c>
       <c r="E16">
-        <v>64.67326354980469</v>
+        <v>61.09000015258789</v>
       </c>
       <c r="F16">
-        <v>66.63478202323152</v>
+        <v>70.27999877929688</v>
       </c>
       <c r="G16">
-        <v>60.75970456328059</v>
+        <v>60.13000106811523</v>
       </c>
       <c r="H16">
-        <v>212968277</v>
+        <v>150192801</v>
       </c>
       <c r="I16" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>9300536532</v>
@@ -2227,22 +2164,22 @@
         <v>45291</v>
       </c>
       <c r="D17">
-        <v>1152.400024414062</v>
+        <v>68.75</v>
       </c>
       <c r="E17">
-        <v>1198.829956054688</v>
+        <v>71.38999938964844</v>
       </c>
       <c r="F17">
-        <v>1307.140014648438</v>
+        <v>73.44000244140625</v>
       </c>
       <c r="G17">
-        <v>1113.18994140625</v>
+        <v>64.04000091552734</v>
       </c>
       <c r="H17">
-        <v>24003656</v>
+        <v>150192801</v>
       </c>
       <c r="I17" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>9932546212</v>
@@ -2343,22 +2280,22 @@
         <v>45382</v>
       </c>
       <c r="D18">
-        <v>104.6600036621094</v>
+        <v>82.15000152587891</v>
       </c>
       <c r="E18">
-        <v>92.98000335693359</v>
+        <v>68.41999816894531</v>
       </c>
       <c r="F18">
-        <v>105.0100021362305</v>
+        <v>82.63999938964844</v>
       </c>
       <c r="G18">
-        <v>90.66999816894533</v>
+        <v>68.36000061035156</v>
       </c>
       <c r="H18">
-        <v>168459019</v>
+        <v>150192801</v>
       </c>
       <c r="I18" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>11907864977</v>
@@ -2459,22 +2396,22 @@
         <v>45473</v>
       </c>
       <c r="D19">
-        <v>53.97000122070312</v>
+        <v>66.12999725341797</v>
       </c>
       <c r="E19">
-        <v>52.63999938964844</v>
+        <v>71.02999877929688</v>
       </c>
       <c r="F19">
-        <v>65.87999725341797</v>
+        <v>72.48000335693359</v>
       </c>
       <c r="G19">
-        <v>50.29000091552734</v>
+        <v>63.33000183105469</v>
       </c>
       <c r="H19">
-        <v>42689006</v>
+        <v>150192801</v>
       </c>
       <c r="I19" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>9702785287</v>
@@ -2575,22 +2512,22 @@
         <v>45565</v>
       </c>
       <c r="D20">
-        <v>36.50313191135645</v>
+        <v>61.68999862670898</v>
       </c>
       <c r="E20">
-        <v>39.63111877441406</v>
+        <v>65.65000152587891</v>
       </c>
       <c r="F20">
-        <v>41.15769383693995</v>
+        <v>69.27999877929688</v>
       </c>
       <c r="G20">
-        <v>34.26814654717644</v>
+        <v>58.09999847412109</v>
       </c>
       <c r="H20">
-        <v>171080665</v>
+        <v>150192801</v>
       </c>
       <c r="I20" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>9115121224</v>
@@ -2691,22 +2628,22 @@
         <v>45657</v>
       </c>
       <c r="D21">
-        <v>12.96000003814697</v>
+        <v>76.12999725341797</v>
       </c>
       <c r="E21">
-        <v>14.22000026702881</v>
+        <v>79.55999755859375</v>
       </c>
       <c r="F21">
-        <v>15.34500026702881</v>
+        <v>83.06999969482422</v>
       </c>
       <c r="G21">
-        <v>12.61999988555908</v>
+        <v>72.88099670410156</v>
       </c>
       <c r="H21">
-        <v>453568899</v>
+        <v>150192801</v>
       </c>
       <c r="I21" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>11139386477</v>
@@ -2807,22 +2744,22 @@
         <v>45747</v>
       </c>
       <c r="D22">
-        <v>187.8600006103516</v>
+        <v>66.19000244140625</v>
       </c>
       <c r="E22">
-        <v>184.4199981689453</v>
+        <v>64.08999633789062</v>
       </c>
       <c r="F22">
-        <v>198.3399963378907</v>
+        <v>69.98999786376953</v>
       </c>
       <c r="G22">
-        <v>161.3800048828125</v>
+        <v>53.70999908447266</v>
       </c>
       <c r="H22">
-        <v>10664912097</v>
+        <v>150192801</v>
       </c>
       <c r="I22" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>9897996080</v>
@@ -2923,22 +2860,22 @@
         <v>45838</v>
       </c>
       <c r="D23">
-        <v>105.0804770925983</v>
+        <v>68.20999908447266</v>
       </c>
       <c r="E23">
-        <v>103.1780242919922</v>
+        <v>71.62999725341797</v>
       </c>
       <c r="F23">
-        <v>109.3114367486601</v>
+        <v>77.88999938964844</v>
       </c>
       <c r="G23">
-        <v>101.4440230697358</v>
+        <v>67.48000335693359</v>
       </c>
       <c r="H23">
-        <v>199618386</v>
+        <v>150192801</v>
       </c>
       <c r="I23" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>10206158511</v>
